--- a/data/trans_dic/P52_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P52_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado su situación económica desde la primera encuesta</t>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>65,9%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,52%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>62,25%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 47,1</t>
+          <t>1,28; 7,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,9; 81,01</t>
+          <t>9,34; 23,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,86; 57,42</t>
+          <t>4,64; 16,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,34; 68,42</t>
+          <t>3,53; 12,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,92; 73,11</t>
+          <t>6,87; 15,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,84; 56,06</t>
+          <t>4,58; 12,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,37; 50,78</t>
+          <t>2,98; 8,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,04; 74,17</t>
+          <t>9,38; 17,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,74; 50,99</t>
+          <t>5,33; 12,27</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>57,28%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,74%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,39%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>11,29%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,93; 63,37</t>
+          <t>3,87; 11,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,94; 71,51</t>
+          <t>6,8; 16,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,72; 68,81</t>
+          <t>7,23; 26,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,39; 59,25</t>
+          <t>5,29; 13,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,84; 59,59</t>
+          <t>7,05; 14,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,75; 46,32</t>
+          <t>5,9; 13,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,74; 55,51</t>
+          <t>5,58; 11,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,12; 62,1</t>
+          <t>7,85; 13,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,35; 54,17</t>
+          <t>7,89; 20,41</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>65,99%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>64,92%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>63,8%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>64,88%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>58,03%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>64,92%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>64,9%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>9,21%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,96; 81,18</t>
+          <t>6,95; 17,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>49,02; 78,96</t>
+          <t>6,95; 20,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,83; 64,21</t>
+          <t>5,21; 16,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,73; 76,78</t>
+          <t>7,2; 14,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,21; 76,66</t>
+          <t>7,54; 13,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,1; 69,02</t>
+          <t>6,8; 12,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,97; 75,54</t>
+          <t>8,25; 15,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,93; 73,17</t>
+          <t>8,27; 14,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,63; 61,56</t>
+          <t>7,07; 12,95</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>73,98%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>64,59%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,88%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,3%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,48%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>68,81%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>6,94%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,93; 76,38</t>
+          <t>3,53; 9,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,19; 86,48</t>
+          <t>7,73; 16,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 57,49</t>
+          <t>3,23; 8,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,45; 77,08</t>
+          <t>6,31; 13,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,04; 75,86</t>
+          <t>7,58; 14,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,9; 72,11</t>
+          <t>5,87; 11,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,55; 72,87</t>
+          <t>5,71; 10,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,28; 78,16</t>
+          <t>8,63; 14,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,68; 60,5</t>
+          <t>5,23; 8,98</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>80,72%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>61,71%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>69,84%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>76,33%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,55%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>78,43%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61,63%</t>
+          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,25; 83,41</t>
+          <t>2,98; 9,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,05; 92,77</t>
+          <t>6,55; 13,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,44; 77,98</t>
+          <t>5,0; 11,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,93; 85,62</t>
+          <t>4,33; 11,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,41; 89,5</t>
+          <t>6,92; 14,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,05; 76,71</t>
+          <t>5,5; 12,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>51,67; 79,94</t>
+          <t>4,16; 9,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>65,16; 87,34</t>
+          <t>7,66; 12,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,73; 72,79</t>
+          <t>5,92; 10,62</t>
         </is>
       </c>
     </row>
@@ -1182,12 +1183,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1197,32 +1198,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>71,1%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>78,77%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>1,59%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,43; 100</t>
+          <t>0,94; 5,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,14; 100,0</t>
+          <t>1,11; 6,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,21; 93,9</t>
+          <t>1,33; 11,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,02; 71,54</t>
+          <t>1,33; 5,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,18; 79,39</t>
+          <t>1,35; 5,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,96; 95,87</t>
+          <t>1,62; 7,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,4; 77,4</t>
+          <t>1,59; 4,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,81; 66,97</t>
+          <t>0,74; 2,84</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>53,02%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>67,78%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>7,49%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>44,04; 61,97</t>
+          <t>4,84; 7,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>59,71; 74,04</t>
+          <t>8,47; 12,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,72; 52,75</t>
+          <t>5,75; 10,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,24; 65,57</t>
+          <t>6,41; 9,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>49,7; 65,09</t>
+          <t>7,72; 10,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,15; 55,35</t>
+          <t>6,35; 8,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,85; 61,8</t>
+          <t>6,03; 8,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>56,82; 67,71</t>
+          <t>8,55; 10,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>41,27; 52,06</t>
+          <t>6,35; 8,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado su situación económica desde la primera encuesta (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16857</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>80481</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>44491</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32879</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>55557</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>39592</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>49736</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>136038</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>84083</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6415; 36877</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48944; 120748</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23666; 82304</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16535; 59962</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35398; 81412</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23547; 65065</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28930; 82525</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>97506; 180993</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54609; 125624</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>41979</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>61652</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>78855</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>45510</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>52223</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>46687</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>87489</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>113875</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>125542</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22185; 67258</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>38451; 91614</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>42961; 156340</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>27444; 69712</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>35806; 73485</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>30511; 69954</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61005; 127682</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>84300; 148883</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>87678; 226901</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>79437</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>76515</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60668</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>75557</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>76194</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>67704</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>154994</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>152709</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>128372</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>47716; 121114</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>47322; 136555</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35410; 113299</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>51291; 104107</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>54189; 98522</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48556; 90139</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>115463; 211106</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>115706; 204035</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>98496; 180448</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>40132</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>73160</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33702</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>63673</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>69993</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>56419</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>103804</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>143152</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>90120</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>22879; 64136</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>49911; 105035</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20642; 51384</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>43271; 90889</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>51045; 95092</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38750; 77658</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>76094; 136597</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>113860; 186713</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>67978; 116684</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>27497</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>47718</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>38066</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36762</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>51249</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>42929</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>64259</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>98966</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>80995</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14779; 45412</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>33012; 67971</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>24694; 58798</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22036; 59736</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34838; 74252</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>28336; 63252</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41828; 92838</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>77182; 125660</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>59683; 107081</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13379</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15062</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>29161</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>19886</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19539</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>42540</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>34948</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>19539</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5135; 30227</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5859; 32057</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>9559; 79394</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9215; 40690</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9350; 34665</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>20499; 94360</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19430; 55259</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9057; 34754</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>219280</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>354588</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>255783</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>283542</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>325101</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>272869</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>502822</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>679689</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>528652</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>166813; 275585</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>292027; 432808</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>198269; 351629</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>231508; 344625</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>278873; 374665</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>229538; 321238</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>425896; 593298</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>603554; 766024</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>448345; 632752</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>